--- a/IrbAnalyser/studysite.xlsx
+++ b/IrbAnalyser/studysite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370"/>
+    <workbookView xWindow="0" yWindow="14220" windowWidth="27795" windowHeight="14370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>StudyId</t>
   </si>
@@ -54,9 +54,6 @@
     <t>BRANY</t>
   </si>
   <si>
-    <t>Einstein</t>
-  </si>
-  <si>
     <t>StudyTitle</t>
   </si>
   <si>
@@ -69,15 +66,6 @@
     <t>PrimarySponsorName</t>
   </si>
   <si>
-    <t>PrimarySponsorSontactFirstName</t>
-  </si>
-  <si>
-    <t>PrimarySponsorSontactLastName</t>
-  </si>
-  <si>
-    <t>PrimarySponsorSontactEmail</t>
-  </si>
-  <si>
     <t>PrimarySponsorStudyId</t>
   </si>
   <si>
@@ -96,60 +84,6 @@
     <t>ExpirationDate</t>
   </si>
   <si>
-    <t>"654654"</t>
-  </si>
-  <si>
-    <t>"4564654"</t>
-  </si>
-  <si>
-    <t>"632132"</t>
-  </si>
-  <si>
-    <t>"64654"</t>
-  </si>
-  <si>
-    <t>"12345"</t>
-  </si>
-  <si>
-    <t>"123465498"</t>
-  </si>
-  <si>
-    <t>"A study"</t>
-  </si>
-  <si>
-    <t>"A study about bla bla bla"</t>
-  </si>
-  <si>
-    <t>"46556"</t>
-  </si>
-  <si>
-    <t>"kjh"</t>
-  </si>
-  <si>
-    <t>"adad"</t>
-  </si>
-  <si>
-    <t>"Bayer"</t>
-  </si>
-  <si>
-    <t>"McDonald"</t>
-  </si>
-  <si>
-    <t>"Roger"</t>
-  </si>
-  <si>
-    <t>"Walter"</t>
-  </si>
-  <si>
-    <t>"abc@ds.dd"</t>
-  </si>
-  <si>
-    <t>"546654"</t>
-  </si>
-  <si>
-    <t>"www.google.com"</t>
-  </si>
-  <si>
     <t>2015-01-12T22:22:12</t>
   </si>
   <si>
@@ -160,6 +94,60 @@
   </si>
   <si>
     <t>Studysamplesize</t>
+  </si>
+  <si>
+    <t>Albert Einstein Col. of Med. of Yeshiva University</t>
+  </si>
+  <si>
+    <t>Westchester Cardiology</t>
+  </si>
+  <si>
+    <t>Testing 54321</t>
+  </si>
+  <si>
+    <t>www.pinkbike.com</t>
+  </si>
+  <si>
+    <t>A study</t>
+  </si>
+  <si>
+    <t>A study about bla bla bla</t>
+  </si>
+  <si>
+    <t>Bayer</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>abc@ds.dd</t>
+  </si>
+  <si>
+    <t>www.google.com</t>
+  </si>
+  <si>
+    <t>kjh</t>
+  </si>
+  <si>
+    <t>adad</t>
+  </si>
+  <si>
+    <t>McDonald</t>
+  </si>
+  <si>
+    <t>PrimarySponsorContactFirstName</t>
+  </si>
+  <si>
+    <t>PrimarySponsorContactLastName</t>
+  </si>
+  <si>
+    <t>PrimarySponsorContactEmail</t>
+  </si>
+  <si>
+    <t>654645465465</t>
   </si>
 </sst>
 </file>
@@ -228,11 +216,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Normal" xfId="2"/>
@@ -540,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:AM11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,120 +540,128 @@
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="14.140625" customWidth="1"/>
     <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="18" max="18" width="45.85546875" customWidth="1"/>
+    <col min="24" max="24" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.85546875" customWidth="1"/>
+    <col min="26" max="26" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>12345</v>
+      </c>
+      <c r="B2" s="2">
+        <v>632132</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2">
+        <v>12345</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="b">
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
       <c r="N2">
         <v>5</v>
       </c>
@@ -673,101 +669,323 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="2">
+        <v>546654</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="2">
+        <v>546654</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>4564654</v>
+      </c>
+      <c r="B3" s="2">
+        <v>64654</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2">
+        <v>123465498</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>46556</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>35</v>
-      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
       <c r="N3">
         <v>5</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>54321</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5432122</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>54321</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="2"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>6554444</v>
+      </c>
+      <c r="B5" s="2">
+        <v>654444</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
+        <v>56653321</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>46556</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="N5" s="1">
+        <v>5</v>
+      </c>
+      <c r="O5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>12345</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>12345</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1">
+        <v>5</v>
+      </c>
+      <c r="O6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U6" s="2">
+        <v>546654</v>
+      </c>
+      <c r="V6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V3" s="1"/>
-      <c r="X3" s="2"/>
+      <c r="W6" s="2">
+        <v>546654</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="X4" s="2"/>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>456</v>
+      </c>
+      <c r="B7" s="2">
+        <v>645654</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
+        <v>456</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2">
+        <v>456</v>
+      </c>
+      <c r="G7" s="2">
+        <v>456456</v>
+      </c>
+      <c r="H7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="X5" s="2"/>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="X8" s="1"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="X6" s="2"/>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="X9" s="1"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="X7" s="2"/>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="X10" s="1"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="X8" s="2"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="X9" s="2"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="X10" s="2"/>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="V4" r:id="rId1" display="https://ctmsstg.montefiore.org/velos/jsp/www.pinkbike.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
